--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e85bff1b2d48633/Documents/Sisekelo/Zensar_sisekelo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4B13C7-52DC-4F83-BC2B-6230344D8072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EC4B13C7-52DC-4F83-BC2B-6230344D8072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D9E094-318B-4B19-93D9-35D52ECC7CAD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1E30A13B-140F-4A90-9DA6-C6F2F3A9EF49}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -538,7 +538,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="51">
   <si>
     <t>Title</t>
   </si>
